--- a/PID_tunning.xlsx
+++ b/PID_tunning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenhaoyang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenhaoyang/Desktop/building_px4_quadcopter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D017DDF6-EF27-4540-B6F7-8C8C5F823D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CEB213-DEDC-724D-91B0-1038F59DA8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1300" yWindow="500" windowWidth="24700" windowHeight="14640" xr2:uid="{3AB3B5C9-C2D3-FB46-9E14-E3F19452E92B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>P</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>wire burned</t>
+  </si>
+  <si>
+    <t>MPC_XY_P</t>
+  </si>
+  <si>
+    <t>MPC_Z_P</t>
+  </si>
+  <si>
+    <t>0.95-&gt;0.85</t>
+  </si>
+  <si>
+    <t>1-&gt;0.95</t>
   </si>
 </sst>
 </file>
@@ -648,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108022E8-B0AB-D549-830A-BF5888BDCBAE}">
-  <dimension ref="A1:X74"/>
+  <dimension ref="A1:X79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="119" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="119" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2381,6 +2393,50 @@
         <v>17</v>
       </c>
     </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="E77" s="26">
+        <v>0.11</v>
+      </c>
+      <c r="F77" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G77" s="26">
+        <v>1.5E-3</v>
+      </c>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26">
+        <v>0.15</v>
+      </c>
+      <c r="L77" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="M77" s="26">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
